--- a/outputs-r202/train-g__CAG-180.xlsx
+++ b/outputs-r202/train-g__CAG-180.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="315">
   <si>
     <t>Row</t>
   </si>
@@ -782,6 +783,186 @@
   </si>
   <si>
     <t>RS_GCF_900766945.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_008667575.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_008667785.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_008672965.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_008680315.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_014465845.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_014465845.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_014466005.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900540575.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314305.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314305.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314305.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314305.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314305.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002361875.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002361875.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002361875.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002361875.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002361875.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002437245.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002437245.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002490425.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002490425.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002491135.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002491135.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002491545.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002493105.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002493105.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002493105.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002493105.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004552955.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004552955.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004552955.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004555265.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004555265.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004555265.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004556705.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004560015.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_014465835.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900771765.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003477365.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003477365.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315235.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315235.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315235.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315985.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009774745.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009774745.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009774745.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900540295.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900540295.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900545625.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900545625.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900545625.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900545625.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900545625.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900545625.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900766945.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900766945.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900766945.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900766945.1_8.fasta</t>
   </si>
 </sst>
 </file>
@@ -802,7 +983,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -818,11 +999,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -832,6 +1015,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12409,4 +12594,2897 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O61"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="22.85546875" customWidth="true"/>
+    <col min="3" max="3" width="22.85546875" customWidth="true"/>
+    <col min="4" max="4" width="22.85546875" customWidth="true"/>
+    <col min="5" max="5" width="22.85546875" customWidth="true"/>
+    <col min="6" max="6" width="22.85546875" customWidth="true"/>
+    <col min="7" max="7" width="22.85546875" customWidth="true"/>
+    <col min="8" max="8" width="22.85546875" customWidth="true"/>
+    <col min="9" max="9" width="22.85546875" customWidth="true"/>
+    <col min="10" max="10" width="22.85546875" customWidth="true"/>
+    <col min="11" max="11" width="22.85546875" customWidth="true"/>
+    <col min="12" max="12" width="22.85546875" customWidth="true"/>
+    <col min="13" max="13" width="22.85546875" customWidth="true"/>
+    <col min="14" max="14" width="10.28515625" customWidth="true"/>
+    <col min="15" max="15" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2">
+        <v>0.97090987473426837</v>
+      </c>
+      <c r="C2">
+        <v>0.0026445066137543568</v>
+      </c>
+      <c r="D2">
+        <v>0.0026445066137543529</v>
+      </c>
+      <c r="E2">
+        <v>0.0026445066137543629</v>
+      </c>
+      <c r="F2">
+        <v>0.0026445066137543629</v>
+      </c>
+      <c r="G2">
+        <v>0.0026445066137543512</v>
+      </c>
+      <c r="H2">
+        <v>0.0026445066137543278</v>
+      </c>
+      <c r="I2">
+        <v>0.0026445066137543234</v>
+      </c>
+      <c r="J2">
+        <v>0.0026445066137543234</v>
+      </c>
+      <c r="K2">
+        <v>0.0026445066137543547</v>
+      </c>
+      <c r="L2">
+        <v>0.0026450591281880721</v>
+      </c>
+      <c r="M2">
+        <v>0.0026445066137543512</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3">
+        <v>0.99216234912183665</v>
+      </c>
+      <c r="C3">
+        <v>0.00071250062920516911</v>
+      </c>
+      <c r="D3">
+        <v>0.00071250062920516911</v>
+      </c>
+      <c r="E3">
+        <v>0.00071250062920517237</v>
+      </c>
+      <c r="F3">
+        <v>0.00071250062920517237</v>
+      </c>
+      <c r="G3">
+        <v>0.00071250062920516846</v>
+      </c>
+      <c r="H3">
+        <v>0.00071250062920516456</v>
+      </c>
+      <c r="I3">
+        <v>0.00071250062920516456</v>
+      </c>
+      <c r="J3">
+        <v>0.00071250062920516456</v>
+      </c>
+      <c r="K3">
+        <v>0.00071250062920516922</v>
+      </c>
+      <c r="L3">
+        <v>0.00071264458611186251</v>
+      </c>
+      <c r="M3">
+        <v>0.00071250062920516673</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4">
+        <v>0.9778485437981721</v>
+      </c>
+      <c r="C4">
+        <v>0.0020137481326558048</v>
+      </c>
+      <c r="D4">
+        <v>0.0020137481326558014</v>
+      </c>
+      <c r="E4">
+        <v>0.0020137481326558031</v>
+      </c>
+      <c r="F4">
+        <v>0.00201374813265581</v>
+      </c>
+      <c r="G4">
+        <v>0.0020137481326558048</v>
+      </c>
+      <c r="H4">
+        <v>0.0020137481326557996</v>
+      </c>
+      <c r="I4">
+        <v>0.0020137481326557979</v>
+      </c>
+      <c r="J4">
+        <v>0.0020137481326557979</v>
+      </c>
+      <c r="K4">
+        <v>0.0020137481326558014</v>
+      </c>
+      <c r="L4">
+        <v>0.0020139748752697612</v>
+      </c>
+      <c r="M4">
+        <v>0.0020137481326558014</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5">
+        <v>0.93463031312584788</v>
+      </c>
+      <c r="C5">
+        <v>2.2200752393857967e-14</v>
+      </c>
+      <c r="D5">
+        <v>2.2200752393857967e-14</v>
+      </c>
+      <c r="E5">
+        <v>2.2200752393857967e-14</v>
+      </c>
+      <c r="F5">
+        <v>2.2200752393857967e-14</v>
+      </c>
+      <c r="G5">
+        <v>2.2200752393857967e-14</v>
+      </c>
+      <c r="H5">
+        <v>2.2200752393857967e-14</v>
+      </c>
+      <c r="I5">
+        <v>0.065369686870197841</v>
+      </c>
+      <c r="J5">
+        <v>2.2200752393857967e-14</v>
+      </c>
+      <c r="K5">
+        <v>2.2200752393857967e-14</v>
+      </c>
+      <c r="L5">
+        <v>3.754684379575827e-12</v>
+      </c>
+      <c r="M5">
+        <v>2.2200752393857967e-14</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6">
+        <v>0.99517580523372373</v>
+      </c>
+      <c r="C6">
+        <v>1.0308894915503892e-12</v>
+      </c>
+      <c r="D6">
+        <v>1.0308894915503932e-12</v>
+      </c>
+      <c r="E6">
+        <v>1.0308894915503957e-12</v>
+      </c>
+      <c r="F6">
+        <v>1.0308894915503965e-12</v>
+      </c>
+      <c r="G6">
+        <v>1.0308894915503938e-12</v>
+      </c>
+      <c r="H6">
+        <v>1.030889491550393e-12</v>
+      </c>
+      <c r="I6">
+        <v>1.030889491550393e-12</v>
+      </c>
+      <c r="J6">
+        <v>1.030889491550393e-12</v>
+      </c>
+      <c r="K6">
+        <v>1.0308894915503908e-12</v>
+      </c>
+      <c r="L6">
+        <v>0.0048241947559670281</v>
+      </c>
+      <c r="M6">
+        <v>1.0308894915503922e-12</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7">
+        <v>0.99109502960847817</v>
+      </c>
+      <c r="C7">
+        <v>0.0008095344217991003</v>
+      </c>
+      <c r="D7">
+        <v>0.0008095344217991041</v>
+      </c>
+      <c r="E7">
+        <v>0.00080953442179910106</v>
+      </c>
+      <c r="F7">
+        <v>0.00080953442179910193</v>
+      </c>
+      <c r="G7">
+        <v>0.0008095344217990977</v>
+      </c>
+      <c r="H7">
+        <v>0.0008095344217990938</v>
+      </c>
+      <c r="I7">
+        <v>0.0008095344217990938</v>
+      </c>
+      <c r="J7">
+        <v>0.0008095344217990938</v>
+      </c>
+      <c r="K7">
+        <v>0.00080953442179909955</v>
+      </c>
+      <c r="L7">
+        <v>0.00080962617353073506</v>
+      </c>
+      <c r="M7">
+        <v>0.00080953442179910171</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8">
+        <v>0.97316759425944288</v>
+      </c>
+      <c r="C8">
+        <v>0.0024391662215640418</v>
+      </c>
+      <c r="D8">
+        <v>0.0024391662215640449</v>
+      </c>
+      <c r="E8">
+        <v>0.0024391662215640475</v>
+      </c>
+      <c r="F8">
+        <v>0.0024391662215640492</v>
+      </c>
+      <c r="G8">
+        <v>0.0024391662215640297</v>
+      </c>
+      <c r="H8">
+        <v>0.0024391662215640258</v>
+      </c>
+      <c r="I8">
+        <v>0.0024391662215640258</v>
+      </c>
+      <c r="J8">
+        <v>0.0024391662215640258</v>
+      </c>
+      <c r="K8">
+        <v>0.002439166221564044</v>
+      </c>
+      <c r="L8">
+        <v>0.0024407435249165976</v>
+      </c>
+      <c r="M8">
+        <v>0.002439166221564051</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9">
+        <v>0.99210862661798438</v>
+      </c>
+      <c r="C9">
+        <v>0.000717387817119083</v>
+      </c>
+      <c r="D9">
+        <v>0.0007173878171190856</v>
+      </c>
+      <c r="E9">
+        <v>0.00071738781711908658</v>
+      </c>
+      <c r="F9">
+        <v>0.00071738781711908658</v>
+      </c>
+      <c r="G9">
+        <v>0.00071738781711908311</v>
+      </c>
+      <c r="H9">
+        <v>0.0007173878171190817</v>
+      </c>
+      <c r="I9">
+        <v>0.0007173878171190817</v>
+      </c>
+      <c r="J9">
+        <v>0.0007173878171190817</v>
+      </c>
+      <c r="K9">
+        <v>0.00071738781711908907</v>
+      </c>
+      <c r="L9">
+        <v>0.00071749521082422804</v>
+      </c>
+      <c r="M9">
+        <v>0.00071738781711909113</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10">
+        <v>5.6748078804123163e-09</v>
+      </c>
+      <c r="C10">
+        <v>0.9531847930192946</v>
+      </c>
+      <c r="D10">
+        <v>2.2200553127507205e-14</v>
+      </c>
+      <c r="E10">
+        <v>2.2200553127507205e-14</v>
+      </c>
+      <c r="F10">
+        <v>2.2200553127507205e-14</v>
+      </c>
+      <c r="G10">
+        <v>2.2200553127507205e-14</v>
+      </c>
+      <c r="H10">
+        <v>2.2200553127507205e-14</v>
+      </c>
+      <c r="I10">
+        <v>2.2200553127507205e-14</v>
+      </c>
+      <c r="J10">
+        <v>2.2200553127507205e-14</v>
+      </c>
+      <c r="K10">
+        <v>2.2200553127507205e-14</v>
+      </c>
+      <c r="L10">
+        <v>0.046815201305697669</v>
+      </c>
+      <c r="M10">
+        <v>2.2200553127507205e-14</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11">
+        <v>5.7531548206737001e-11</v>
+      </c>
+      <c r="C11">
+        <v>0.98079410646947274</v>
+      </c>
+      <c r="D11">
+        <v>2.2200300266244464e-14</v>
+      </c>
+      <c r="E11">
+        <v>2.2200300266244464e-14</v>
+      </c>
+      <c r="F11">
+        <v>2.2200300266244464e-14</v>
+      </c>
+      <c r="G11">
+        <v>2.2200300266244464e-14</v>
+      </c>
+      <c r="H11">
+        <v>2.2200300266244464e-14</v>
+      </c>
+      <c r="I11">
+        <v>2.2200300266244464e-14</v>
+      </c>
+      <c r="J11">
+        <v>2.2200300266244464e-14</v>
+      </c>
+      <c r="K11">
+        <v>2.2200300266244464e-14</v>
+      </c>
+      <c r="L11">
+        <v>0.019205893472795943</v>
+      </c>
+      <c r="M11">
+        <v>2.2200300266244464e-14</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12">
+        <v>6.1324288961912479e-09</v>
+      </c>
+      <c r="C12">
+        <v>0.98079329991037678</v>
+      </c>
+      <c r="D12">
+        <v>2.2200300559349119e-14</v>
+      </c>
+      <c r="E12">
+        <v>2.2200300559349119e-14</v>
+      </c>
+      <c r="F12">
+        <v>2.2200300559349119e-14</v>
+      </c>
+      <c r="G12">
+        <v>2.2200300559349119e-14</v>
+      </c>
+      <c r="H12">
+        <v>2.2200300559349119e-14</v>
+      </c>
+      <c r="I12">
+        <v>2.2200300559349119e-14</v>
+      </c>
+      <c r="J12">
+        <v>2.2200300559349119e-14</v>
+      </c>
+      <c r="K12">
+        <v>2.2200300559349119e-14</v>
+      </c>
+      <c r="L12">
+        <v>0.019206693956994494</v>
+      </c>
+      <c r="M12">
+        <v>2.2200300559349119e-14</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13">
+        <v>6.1111130922702615e-08</v>
+      </c>
+      <c r="C13">
+        <v>5.1393287628082821e-11</v>
+      </c>
+      <c r="D13">
+        <v>5.1393287628082854e-11</v>
+      </c>
+      <c r="E13">
+        <v>5.1393287628082854e-11</v>
+      </c>
+      <c r="F13">
+        <v>0.28960784897274211</v>
+      </c>
+      <c r="G13">
+        <v>5.1393287628082893e-11</v>
+      </c>
+      <c r="H13">
+        <v>5.1393287628082854e-11</v>
+      </c>
+      <c r="I13">
+        <v>5.1393287628082854e-11</v>
+      </c>
+      <c r="J13">
+        <v>5.1393287628082854e-11</v>
+      </c>
+      <c r="K13">
+        <v>5.1393287628082925e-11</v>
+      </c>
+      <c r="L13">
+        <v>0.71039208945358745</v>
+      </c>
+      <c r="M13">
+        <v>5.1393287628082925e-11</v>
+      </c>
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14">
+        <v>6.1267918823818126e-12</v>
+      </c>
+      <c r="C14">
+        <v>0.98079113481687841</v>
+      </c>
+      <c r="D14">
+        <v>2.2200301187943383e-14</v>
+      </c>
+      <c r="E14">
+        <v>2.2200301187943383e-14</v>
+      </c>
+      <c r="F14">
+        <v>1.2226843071341729e-11</v>
+      </c>
+      <c r="G14">
+        <v>2.2200301187943383e-14</v>
+      </c>
+      <c r="H14">
+        <v>2.2200301187943383e-14</v>
+      </c>
+      <c r="I14">
+        <v>2.2200301187943383e-14</v>
+      </c>
+      <c r="J14">
+        <v>2.2200301187943383e-14</v>
+      </c>
+      <c r="K14">
+        <v>2.2200301187943383e-14</v>
+      </c>
+      <c r="L14">
+        <v>0.019208865164590208</v>
+      </c>
+      <c r="M14">
+        <v>2.2200301187943383e-14</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15">
+        <v>3.4698195528099701e-08</v>
+      </c>
+      <c r="C15">
+        <v>2.2202337251334806e-14</v>
+      </c>
+      <c r="D15">
+        <v>0.99884864442337062</v>
+      </c>
+      <c r="E15">
+        <v>2.2202337251334806e-14</v>
+      </c>
+      <c r="F15">
+        <v>2.478564101793431e-08</v>
+      </c>
+      <c r="G15">
+        <v>2.2202337251334806e-14</v>
+      </c>
+      <c r="H15">
+        <v>2.2202337251334806e-14</v>
+      </c>
+      <c r="I15">
+        <v>2.2202337251334806e-14</v>
+      </c>
+      <c r="J15">
+        <v>2.2202337251334806e-14</v>
+      </c>
+      <c r="K15">
+        <v>2.2202337251334806e-14</v>
+      </c>
+      <c r="L15">
+        <v>0.0011512960926153182</v>
+      </c>
+      <c r="M15">
+        <v>2.2202337251334806e-14</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16">
+        <v>1.0141594252783674e-08</v>
+      </c>
+      <c r="C16">
+        <v>2.2203789997599997e-14</v>
+      </c>
+      <c r="D16">
+        <v>0.99963725710805729</v>
+      </c>
+      <c r="E16">
+        <v>2.2203789997599997e-14</v>
+      </c>
+      <c r="F16">
+        <v>0.00013707689767153324</v>
+      </c>
+      <c r="G16">
+        <v>2.2203789997599997e-14</v>
+      </c>
+      <c r="H16">
+        <v>2.2203789997599997e-14</v>
+      </c>
+      <c r="I16">
+        <v>2.2203789997599997e-14</v>
+      </c>
+      <c r="J16">
+        <v>2.2203789997599997e-14</v>
+      </c>
+      <c r="K16">
+        <v>2.2203789997599997e-14</v>
+      </c>
+      <c r="L16">
+        <v>0.00022565585249933467</v>
+      </c>
+      <c r="M16">
+        <v>2.2203789997599997e-14</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17">
+        <v>4.3888049459810171e-10</v>
+      </c>
+      <c r="C17">
+        <v>2.2200317182250995e-14</v>
+      </c>
+      <c r="D17">
+        <v>0.98073953656672852</v>
+      </c>
+      <c r="E17">
+        <v>2.2200317182250995e-14</v>
+      </c>
+      <c r="F17">
+        <v>4.5664732062512714e-10</v>
+      </c>
+      <c r="G17">
+        <v>2.2200317182250995e-14</v>
+      </c>
+      <c r="H17">
+        <v>2.2200317182250995e-14</v>
+      </c>
+      <c r="I17">
+        <v>2.2200317182250995e-14</v>
+      </c>
+      <c r="J17">
+        <v>2.2200317182250995e-14</v>
+      </c>
+      <c r="K17">
+        <v>2.2200317182250995e-14</v>
+      </c>
+      <c r="L17">
+        <v>0.019260462537566136</v>
+      </c>
+      <c r="M17">
+        <v>2.2200317182250995e-14</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18">
+        <v>1.0043570854448456e-07</v>
+      </c>
+      <c r="C18">
+        <v>2.2204187686079568e-14</v>
+      </c>
+      <c r="D18">
+        <v>0.99985250287510052</v>
+      </c>
+      <c r="E18">
+        <v>2.2204187686079568e-14</v>
+      </c>
+      <c r="F18">
+        <v>0.00013815117873418621</v>
+      </c>
+      <c r="G18">
+        <v>2.2204187686079568e-14</v>
+      </c>
+      <c r="H18">
+        <v>2.2204187686079568e-14</v>
+      </c>
+      <c r="I18">
+        <v>2.2204187686079568e-14</v>
+      </c>
+      <c r="J18">
+        <v>2.2204187686079568e-14</v>
+      </c>
+      <c r="K18">
+        <v>2.2204187686079568e-14</v>
+      </c>
+      <c r="L18">
+        <v>9.2455102791442958e-06</v>
+      </c>
+      <c r="M18">
+        <v>2.2204187686079568e-14</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19">
+        <v>3.135958629946141e-10</v>
+      </c>
+      <c r="C19">
+        <v>2.2200298482427921e-14</v>
+      </c>
+      <c r="D19">
+        <v>0.98167833339605204</v>
+      </c>
+      <c r="E19">
+        <v>2.2200298482427921e-14</v>
+      </c>
+      <c r="F19">
+        <v>3.5229606634539268e-10</v>
+      </c>
+      <c r="G19">
+        <v>2.2200298482427921e-14</v>
+      </c>
+      <c r="H19">
+        <v>2.2200298482427921e-14</v>
+      </c>
+      <c r="I19">
+        <v>2.2200298482427921e-14</v>
+      </c>
+      <c r="J19">
+        <v>2.2200298482427921e-14</v>
+      </c>
+      <c r="K19">
+        <v>2.2200298482427921e-14</v>
+      </c>
+      <c r="L19">
+        <v>0.018321665937878477</v>
+      </c>
+      <c r="M19">
+        <v>2.2200298482427921e-14</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20">
+        <v>0.11291595599600988</v>
+      </c>
+      <c r="C20">
+        <v>0.07429036390825014</v>
+      </c>
+      <c r="D20">
+        <v>0.07429036390825014</v>
+      </c>
+      <c r="E20">
+        <v>0.14418034560324505</v>
+      </c>
+      <c r="F20">
+        <v>0.07429036390825014</v>
+      </c>
+      <c r="G20">
+        <v>0.07429036390825014</v>
+      </c>
+      <c r="H20">
+        <v>0.07429036390825014</v>
+      </c>
+      <c r="I20">
+        <v>0.07429036390825014</v>
+      </c>
+      <c r="J20">
+        <v>0.07429036390825014</v>
+      </c>
+      <c r="K20">
+        <v>0.074290363908250001</v>
+      </c>
+      <c r="L20">
+        <v>0.074290423226494109</v>
+      </c>
+      <c r="M20">
+        <v>0.074290363908250126</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21">
+        <v>0.0013738534541077739</v>
+      </c>
+      <c r="C21">
+        <v>2.2201904327990316e-14</v>
+      </c>
+      <c r="D21">
+        <v>2.2201904327990316e-14</v>
+      </c>
+      <c r="E21">
+        <v>0.9986129237139868</v>
+      </c>
+      <c r="F21">
+        <v>2.2201904327990316e-14</v>
+      </c>
+      <c r="G21">
+        <v>2.2201904327990316e-14</v>
+      </c>
+      <c r="H21">
+        <v>2.2201904327990316e-14</v>
+      </c>
+      <c r="I21">
+        <v>2.2201904327990316e-14</v>
+      </c>
+      <c r="J21">
+        <v>2.2201904327990316e-14</v>
+      </c>
+      <c r="K21">
+        <v>2.2201904327990316e-14</v>
+      </c>
+      <c r="L21">
+        <v>1.32228317056205e-05</v>
+      </c>
+      <c r="M21">
+        <v>2.2201904327990316e-14</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22">
+        <v>0.00089697398796256128</v>
+      </c>
+      <c r="C22">
+        <v>0.00089697142629969486</v>
+      </c>
+      <c r="D22">
+        <v>0.00089697142629969399</v>
+      </c>
+      <c r="E22">
+        <v>0.00089697142629969486</v>
+      </c>
+      <c r="F22">
+        <v>0.99011700188654328</v>
+      </c>
+      <c r="G22">
+        <v>0.00089697142629969746</v>
+      </c>
+      <c r="H22">
+        <v>0.00089697142629969226</v>
+      </c>
+      <c r="I22">
+        <v>0.00089697142629969226</v>
+      </c>
+      <c r="J22">
+        <v>0.00089697142629969226</v>
+      </c>
+      <c r="K22">
+        <v>0.00089697142629970017</v>
+      </c>
+      <c r="L22">
+        <v>0.00091328128879688815</v>
+      </c>
+      <c r="M22">
+        <v>0.00089697142629969865</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23">
+        <v>0.070104822448316326</v>
+      </c>
+      <c r="C23">
+        <v>0.070104576697950019</v>
+      </c>
+      <c r="D23">
+        <v>0.070104576697950005</v>
+      </c>
+      <c r="E23">
+        <v>0.070104576697949977</v>
+      </c>
+      <c r="F23">
+        <v>0.2288343089598012</v>
+      </c>
+      <c r="G23">
+        <v>0.070104576697950005</v>
+      </c>
+      <c r="H23">
+        <v>0.070104576697950005</v>
+      </c>
+      <c r="I23">
+        <v>0.070104576697950005</v>
+      </c>
+      <c r="J23">
+        <v>0.070104576697950005</v>
+      </c>
+      <c r="K23">
+        <v>0.070104576697950033</v>
+      </c>
+      <c r="L23">
+        <v>0.070119678310332278</v>
+      </c>
+      <c r="M23">
+        <v>0.070104576697949977</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B24">
+        <v>9.0862212434491332e-08</v>
+      </c>
+      <c r="C24">
+        <v>2.2204460174063305e-14</v>
+      </c>
+      <c r="D24">
+        <v>2.2204460174063305e-14</v>
+      </c>
+      <c r="E24">
+        <v>2.2204460174063305e-14</v>
+      </c>
+      <c r="F24">
+        <v>2.2204460174063305e-14</v>
+      </c>
+      <c r="G24">
+        <v>0.99999982790505437</v>
+      </c>
+      <c r="H24">
+        <v>2.2204460174063305e-14</v>
+      </c>
+      <c r="I24">
+        <v>2.2204460174063305e-14</v>
+      </c>
+      <c r="J24">
+        <v>2.2204460174063305e-14</v>
+      </c>
+      <c r="K24">
+        <v>2.2204460174063305e-14</v>
+      </c>
+      <c r="L24">
+        <v>8.1232533376239988e-08</v>
+      </c>
+      <c r="M24">
+        <v>2.2204460174063305e-14</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
+      </c>
+      <c r="O24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B25">
+        <v>5.2254780402189828e-08</v>
+      </c>
+      <c r="C25">
+        <v>2.2204460092033743e-14</v>
+      </c>
+      <c r="D25">
+        <v>2.2204460092033743e-14</v>
+      </c>
+      <c r="E25">
+        <v>2.2204460092033743e-14</v>
+      </c>
+      <c r="F25">
+        <v>2.2204460092033743e-14</v>
+      </c>
+      <c r="G25">
+        <v>0.99999978357361086</v>
+      </c>
+      <c r="H25">
+        <v>2.2204460092033743e-14</v>
+      </c>
+      <c r="I25">
+        <v>2.2204460092033743e-14</v>
+      </c>
+      <c r="J25">
+        <v>2.2204460092033743e-14</v>
+      </c>
+      <c r="K25">
+        <v>2.2204460092033743e-14</v>
+      </c>
+      <c r="L25">
+        <v>1.6417140886771018e-07</v>
+      </c>
+      <c r="M25">
+        <v>2.2204460092033743e-14</v>
+      </c>
+      <c r="N25">
+        <v>6</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B26">
+        <v>1.9465290766100103e-07</v>
+      </c>
+      <c r="C26">
+        <v>2.2204445551375167e-14</v>
+      </c>
+      <c r="D26">
+        <v>2.2204445551375167e-14</v>
+      </c>
+      <c r="E26">
+        <v>2.2204445551375167e-14</v>
+      </c>
+      <c r="F26">
+        <v>2.2204445551375167e-14</v>
+      </c>
+      <c r="G26">
+        <v>0.9999919251459386</v>
+      </c>
+      <c r="H26">
+        <v>2.2204445551375167e-14</v>
+      </c>
+      <c r="I26">
+        <v>2.2204445551375167e-14</v>
+      </c>
+      <c r="J26">
+        <v>2.2204445551375167e-14</v>
+      </c>
+      <c r="K26">
+        <v>2.2204445551375167e-14</v>
+      </c>
+      <c r="L26">
+        <v>7.8802009538001589e-06</v>
+      </c>
+      <c r="M26">
+        <v>2.2204445551375167e-14</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B27">
+        <v>3.966581037036714e-08</v>
+      </c>
+      <c r="C27">
+        <v>2.2204459924787046e-14</v>
+      </c>
+      <c r="D27">
+        <v>2.2204459924787046e-14</v>
+      </c>
+      <c r="E27">
+        <v>2.2204459924787046e-14</v>
+      </c>
+      <c r="F27">
+        <v>2.2204459924787046e-14</v>
+      </c>
+      <c r="G27">
+        <v>0.99999969318801141</v>
+      </c>
+      <c r="H27">
+        <v>2.2204459924787046e-14</v>
+      </c>
+      <c r="I27">
+        <v>2.2204459924787046e-14</v>
+      </c>
+      <c r="J27">
+        <v>2.2204459924787046e-14</v>
+      </c>
+      <c r="K27">
+        <v>2.2204459924787046e-14</v>
+      </c>
+      <c r="L27">
+        <v>2.6714597829795933e-07</v>
+      </c>
+      <c r="M27">
+        <v>2.2204459924787046e-14</v>
+      </c>
+      <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28">
+        <v>3.9479515190596212e-08</v>
+      </c>
+      <c r="C28">
+        <v>2.2200468779824311e-14</v>
+      </c>
+      <c r="D28">
+        <v>2.2200468779824311e-14</v>
+      </c>
+      <c r="E28">
+        <v>2.2200468779824311e-14</v>
+      </c>
+      <c r="F28">
+        <v>2.2200468779824311e-14</v>
+      </c>
+      <c r="G28">
+        <v>0.96334969433747142</v>
+      </c>
+      <c r="H28">
+        <v>2.2200468779824311e-14</v>
+      </c>
+      <c r="I28">
+        <v>2.2200468779824311e-14</v>
+      </c>
+      <c r="J28">
+        <v>2.2200468779824311e-14</v>
+      </c>
+      <c r="K28">
+        <v>2.2200468779824311e-14</v>
+      </c>
+      <c r="L28">
+        <v>0.036650266182813591</v>
+      </c>
+      <c r="M28">
+        <v>2.2200468779824311e-14</v>
+      </c>
+      <c r="N28">
+        <v>6</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29">
+        <v>5.8130618239219955e-08</v>
+      </c>
+      <c r="C29">
+        <v>2.2204460056667203e-14</v>
+      </c>
+      <c r="D29">
+        <v>2.2204460056667203e-14</v>
+      </c>
+      <c r="E29">
+        <v>2.2204460056667203e-14</v>
+      </c>
+      <c r="F29">
+        <v>2.2204460056667203e-14</v>
+      </c>
+      <c r="G29">
+        <v>0.99999976446037786</v>
+      </c>
+      <c r="H29">
+        <v>2.2204460056667203e-14</v>
+      </c>
+      <c r="I29">
+        <v>2.2204460056667203e-14</v>
+      </c>
+      <c r="J29">
+        <v>2.2204460056667203e-14</v>
+      </c>
+      <c r="K29">
+        <v>2.2204460056667203e-14</v>
+      </c>
+      <c r="L29">
+        <v>1.7740880395593682e-07</v>
+      </c>
+      <c r="M29">
+        <v>2.2204460056667203e-14</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30">
+        <v>9.147515349695954e-07</v>
+      </c>
+      <c r="C30">
+        <v>2.2202916185754846e-14</v>
+      </c>
+      <c r="D30">
+        <v>2.2202916185754846e-14</v>
+      </c>
+      <c r="E30">
+        <v>2.2202916185754846e-14</v>
+      </c>
+      <c r="F30">
+        <v>2.2202916185754846e-14</v>
+      </c>
+      <c r="G30">
+        <v>0.99916335412625013</v>
+      </c>
+      <c r="H30">
+        <v>2.2202916185754846e-14</v>
+      </c>
+      <c r="I30">
+        <v>2.2202916185754846e-14</v>
+      </c>
+      <c r="J30">
+        <v>2.2202916185754846e-14</v>
+      </c>
+      <c r="K30">
+        <v>2.2202916185754846e-14</v>
+      </c>
+      <c r="L30">
+        <v>0.00083573112201502269</v>
+      </c>
+      <c r="M30">
+        <v>2.2202916185754846e-14</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B31">
+        <v>3.8925281317963971e-05</v>
+      </c>
+      <c r="C31">
+        <v>2.2204388474487044e-14</v>
+      </c>
+      <c r="D31">
+        <v>2.2204388474487044e-14</v>
+      </c>
+      <c r="E31">
+        <v>2.2204388474487044e-14</v>
+      </c>
+      <c r="F31">
+        <v>2.2204388474487044e-14</v>
+      </c>
+      <c r="G31">
+        <v>2.2204388474487044e-14</v>
+      </c>
+      <c r="H31">
+        <v>0.99996107471846007</v>
+      </c>
+      <c r="I31">
+        <v>2.2204388474487044e-14</v>
+      </c>
+      <c r="J31">
+        <v>2.2204388474487044e-14</v>
+      </c>
+      <c r="K31">
+        <v>2.2204388474487044e-14</v>
+      </c>
+      <c r="L31">
+        <v>2.2204388474487044e-14</v>
+      </c>
+      <c r="M31">
+        <v>2.2204388474487044e-14</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32">
+        <v>7.7486089141916957e-08</v>
+      </c>
+      <c r="C32">
+        <v>2.2204460349124275e-14</v>
+      </c>
+      <c r="D32">
+        <v>2.2204460349124275e-14</v>
+      </c>
+      <c r="E32">
+        <v>2.2204460349124275e-14</v>
+      </c>
+      <c r="F32">
+        <v>2.2204460349124275e-14</v>
+      </c>
+      <c r="G32">
+        <v>2.2204460349124275e-14</v>
+      </c>
+      <c r="H32">
+        <v>0.99999992251368897</v>
+      </c>
+      <c r="I32">
+        <v>2.2204460349124275e-14</v>
+      </c>
+      <c r="J32">
+        <v>2.2204460349124275e-14</v>
+      </c>
+      <c r="K32">
+        <v>2.2204460349124275e-14</v>
+      </c>
+      <c r="L32">
+        <v>2.2204460349124275e-14</v>
+      </c>
+      <c r="M32">
+        <v>2.2204460349124275e-14</v>
+      </c>
+      <c r="N32">
+        <v>7</v>
+      </c>
+      <c r="O32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33">
+        <v>3.0804838664780592e-06</v>
+      </c>
+      <c r="C33">
+        <v>2.2204454792513617e-14</v>
+      </c>
+      <c r="D33">
+        <v>2.2204454792513617e-14</v>
+      </c>
+      <c r="E33">
+        <v>2.2204454792513617e-14</v>
+      </c>
+      <c r="F33">
+        <v>2.2204454792513617e-14</v>
+      </c>
+      <c r="G33">
+        <v>2.2204454792513617e-14</v>
+      </c>
+      <c r="H33">
+        <v>0.99999691951591141</v>
+      </c>
+      <c r="I33">
+        <v>2.2204454792513617e-14</v>
+      </c>
+      <c r="J33">
+        <v>2.2204454792513617e-14</v>
+      </c>
+      <c r="K33">
+        <v>2.2204454792513617e-14</v>
+      </c>
+      <c r="L33">
+        <v>2.2204454792513617e-14</v>
+      </c>
+      <c r="M33">
+        <v>2.2204454792513617e-14</v>
+      </c>
+      <c r="N33">
+        <v>7</v>
+      </c>
+      <c r="O33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34">
+        <v>3.0217859884365518e-08</v>
+      </c>
+      <c r="C34">
+        <v>2.2204460436588039e-14</v>
+      </c>
+      <c r="D34">
+        <v>2.2204460436588039e-14</v>
+      </c>
+      <c r="E34">
+        <v>2.2204460436588039e-14</v>
+      </c>
+      <c r="F34">
+        <v>2.2204460436588039e-14</v>
+      </c>
+      <c r="G34">
+        <v>2.2204460436588039e-14</v>
+      </c>
+      <c r="H34">
+        <v>0.99999996978191819</v>
+      </c>
+      <c r="I34">
+        <v>2.2204460436588039e-14</v>
+      </c>
+      <c r="J34">
+        <v>2.2204460436588039e-14</v>
+      </c>
+      <c r="K34">
+        <v>2.2204460436588039e-14</v>
+      </c>
+      <c r="L34">
+        <v>2.2204460436588039e-14</v>
+      </c>
+      <c r="M34">
+        <v>2.2204460436588039e-14</v>
+      </c>
+      <c r="N34">
+        <v>7</v>
+      </c>
+      <c r="O34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B35">
+        <v>5.4762238877288004e-09</v>
+      </c>
+      <c r="C35">
+        <v>2.2204460482369266e-14</v>
+      </c>
+      <c r="D35">
+        <v>2.2204460482369266e-14</v>
+      </c>
+      <c r="E35">
+        <v>2.2204460482369266e-14</v>
+      </c>
+      <c r="F35">
+        <v>2.2204460482369266e-14</v>
+      </c>
+      <c r="G35">
+        <v>2.2204460482369266e-14</v>
+      </c>
+      <c r="H35">
+        <v>0.99999999452355404</v>
+      </c>
+      <c r="I35">
+        <v>2.2204460482369266e-14</v>
+      </c>
+      <c r="J35">
+        <v>2.2204460482369266e-14</v>
+      </c>
+      <c r="K35">
+        <v>2.2204460482369266e-14</v>
+      </c>
+      <c r="L35">
+        <v>2.2204460482369266e-14</v>
+      </c>
+      <c r="M35">
+        <v>2.2204460482369266e-14</v>
+      </c>
+      <c r="N35">
+        <v>7</v>
+      </c>
+      <c r="O35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36">
+        <v>5.4519637376142452e-08</v>
+      </c>
+      <c r="C36">
+        <v>2.2204460391620724e-14</v>
+      </c>
+      <c r="D36">
+        <v>2.2204460391620724e-14</v>
+      </c>
+      <c r="E36">
+        <v>2.2204460391620724e-14</v>
+      </c>
+      <c r="F36">
+        <v>2.2204460391620724e-14</v>
+      </c>
+      <c r="G36">
+        <v>2.2204460391620724e-14</v>
+      </c>
+      <c r="H36">
+        <v>0.9999999454801406</v>
+      </c>
+      <c r="I36">
+        <v>2.2204460391620724e-14</v>
+      </c>
+      <c r="J36">
+        <v>2.2204460391620724e-14</v>
+      </c>
+      <c r="K36">
+        <v>2.2204460391620724e-14</v>
+      </c>
+      <c r="L36">
+        <v>2.2204460391620724e-14</v>
+      </c>
+      <c r="M36">
+        <v>2.2204460391620724e-14</v>
+      </c>
+      <c r="N36">
+        <v>7</v>
+      </c>
+      <c r="O36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B37">
+        <v>0.11036450007263794</v>
+      </c>
+      <c r="C37">
+        <v>2.2201081025864673e-14</v>
+      </c>
+      <c r="D37">
+        <v>2.2201081025864673e-14</v>
+      </c>
+      <c r="E37">
+        <v>2.2201081025864673e-14</v>
+      </c>
+      <c r="F37">
+        <v>2.2201081025864673e-14</v>
+      </c>
+      <c r="G37">
+        <v>2.2201081025864673e-14</v>
+      </c>
+      <c r="H37">
+        <v>2.2201081025864673e-14</v>
+      </c>
+      <c r="I37">
+        <v>0.88963549992712732</v>
+      </c>
+      <c r="J37">
+        <v>2.2201081025864673e-14</v>
+      </c>
+      <c r="K37">
+        <v>2.2201081025864673e-14</v>
+      </c>
+      <c r="L37">
+        <v>3.488452289444413e-14</v>
+      </c>
+      <c r="M37">
+        <v>2.2201081025864673e-14</v>
+      </c>
+      <c r="N37">
+        <v>8</v>
+      </c>
+      <c r="O37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B38">
+        <v>0.021912271173107626</v>
+      </c>
+      <c r="C38">
+        <v>2.2200354815463698e-14</v>
+      </c>
+      <c r="D38">
+        <v>2.2200354815463698e-14</v>
+      </c>
+      <c r="E38">
+        <v>2.2200354815463698e-14</v>
+      </c>
+      <c r="F38">
+        <v>2.2200354815463698e-14</v>
+      </c>
+      <c r="G38">
+        <v>2.2200354815463698e-14</v>
+      </c>
+      <c r="H38">
+        <v>2.2200354815463698e-14</v>
+      </c>
+      <c r="I38">
+        <v>0.97808772879064232</v>
+      </c>
+      <c r="J38">
+        <v>2.2200354815463698e-14</v>
+      </c>
+      <c r="K38">
+        <v>2.2200354815463698e-14</v>
+      </c>
+      <c r="L38">
+        <v>3.6050302310968257e-11</v>
+      </c>
+      <c r="M38">
+        <v>2.2200354815463698e-14</v>
+      </c>
+      <c r="N38">
+        <v>8</v>
+      </c>
+      <c r="O38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B39">
+        <v>0.00042315749328774649</v>
+      </c>
+      <c r="C39">
+        <v>2.220367846572943e-14</v>
+      </c>
+      <c r="D39">
+        <v>2.220367846572943e-14</v>
+      </c>
+      <c r="E39">
+        <v>2.220367846572943e-14</v>
+      </c>
+      <c r="F39">
+        <v>2.220367846572943e-14</v>
+      </c>
+      <c r="G39">
+        <v>2.220367846572943e-14</v>
+      </c>
+      <c r="H39">
+        <v>2.220367846572943e-14</v>
+      </c>
+      <c r="I39">
+        <v>0.99957684250649015</v>
+      </c>
+      <c r="J39">
+        <v>2.220367846572943e-14</v>
+      </c>
+      <c r="K39">
+        <v>2.220367846572943e-14</v>
+      </c>
+      <c r="L39">
+        <v>2.220367846572943e-14</v>
+      </c>
+      <c r="M39">
+        <v>2.220367846572943e-14</v>
+      </c>
+      <c r="N39">
+        <v>8</v>
+      </c>
+      <c r="O39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B40">
+        <v>4.9570732348396385e-05</v>
+      </c>
+      <c r="C40">
+        <v>2.2204368781558895e-14</v>
+      </c>
+      <c r="D40">
+        <v>2.2204368781558895e-14</v>
+      </c>
+      <c r="E40">
+        <v>2.2204368781558895e-14</v>
+      </c>
+      <c r="F40">
+        <v>1.0226220577101739e-13</v>
+      </c>
+      <c r="G40">
+        <v>2.2204368781558895e-14</v>
+      </c>
+      <c r="H40">
+        <v>2.2204368781558895e-14</v>
+      </c>
+      <c r="I40">
+        <v>0.99995042926734945</v>
+      </c>
+      <c r="J40">
+        <v>2.2204368781558895e-14</v>
+      </c>
+      <c r="K40">
+        <v>2.2204368781558895e-14</v>
+      </c>
+      <c r="L40">
+        <v>2.2204368781558895e-14</v>
+      </c>
+      <c r="M40">
+        <v>2.2204368781558895e-14</v>
+      </c>
+      <c r="N40">
+        <v>8</v>
+      </c>
+      <c r="O40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B41">
+        <v>2.0363557383216983e-09</v>
+      </c>
+      <c r="C41">
+        <v>2.2204460488734319e-14</v>
+      </c>
+      <c r="D41">
+        <v>2.2204460488734319e-14</v>
+      </c>
+      <c r="E41">
+        <v>2.2204460488734319e-14</v>
+      </c>
+      <c r="F41">
+        <v>2.2204460488734319e-14</v>
+      </c>
+      <c r="G41">
+        <v>2.2204460488734319e-14</v>
+      </c>
+      <c r="H41">
+        <v>2.2204460488734319e-14</v>
+      </c>
+      <c r="I41">
+        <v>2.2204460488734319e-14</v>
+      </c>
+      <c r="J41">
+        <v>0.99999999796341532</v>
+      </c>
+      <c r="K41">
+        <v>2.2204460488734319e-14</v>
+      </c>
+      <c r="L41">
+        <v>2.9024662096135985e-14</v>
+      </c>
+      <c r="M41">
+        <v>2.2204460488734319e-14</v>
+      </c>
+      <c r="N41">
+        <v>9</v>
+      </c>
+      <c r="O41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B42">
+        <v>1.3994267300343462e-08</v>
+      </c>
+      <c r="C42">
+        <v>2.2204460466607765e-14</v>
+      </c>
+      <c r="D42">
+        <v>2.2204460466607765e-14</v>
+      </c>
+      <c r="E42">
+        <v>2.2204460466607765e-14</v>
+      </c>
+      <c r="F42">
+        <v>2.2204460466607765e-14</v>
+      </c>
+      <c r="G42">
+        <v>2.2204460466607765e-14</v>
+      </c>
+      <c r="H42">
+        <v>2.2204460466607765e-14</v>
+      </c>
+      <c r="I42">
+        <v>2.2204460466607765e-14</v>
+      </c>
+      <c r="J42">
+        <v>0.99999998600551065</v>
+      </c>
+      <c r="K42">
+        <v>2.2204460466607765e-14</v>
+      </c>
+      <c r="L42">
+        <v>2.2204460466607765e-14</v>
+      </c>
+      <c r="M42">
+        <v>2.2204460466607765e-14</v>
+      </c>
+      <c r="N42">
+        <v>9</v>
+      </c>
+      <c r="O42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B43">
+        <v>1.0811444752940647e-08</v>
+      </c>
+      <c r="C43">
+        <v>2.2204460470564272e-14</v>
+      </c>
+      <c r="D43">
+        <v>2.2204460470564272e-14</v>
+      </c>
+      <c r="E43">
+        <v>2.2204460470564272e-14</v>
+      </c>
+      <c r="F43">
+        <v>1.0446153737568859e-09</v>
+      </c>
+      <c r="G43">
+        <v>2.2204460470564272e-14</v>
+      </c>
+      <c r="H43">
+        <v>2.2204460470564272e-14</v>
+      </c>
+      <c r="I43">
+        <v>2.2204460470564272e-14</v>
+      </c>
+      <c r="J43">
+        <v>0.99999998814373992</v>
+      </c>
+      <c r="K43">
+        <v>2.2204460470564272e-14</v>
+      </c>
+      <c r="L43">
+        <v>2.2204460470564272e-14</v>
+      </c>
+      <c r="M43">
+        <v>2.2204460470564272e-14</v>
+      </c>
+      <c r="N43">
+        <v>9</v>
+      </c>
+      <c r="O43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B44">
+        <v>2.6518926463286785e-10</v>
+      </c>
+      <c r="C44">
+        <v>2.2204460491998739e-14</v>
+      </c>
+      <c r="D44">
+        <v>2.2204460491998739e-14</v>
+      </c>
+      <c r="E44">
+        <v>2.2204460491998739e-14</v>
+      </c>
+      <c r="F44">
+        <v>7.0072197480566873e-12</v>
+      </c>
+      <c r="G44">
+        <v>2.2204460491998739e-14</v>
+      </c>
+      <c r="H44">
+        <v>2.2204460491998739e-14</v>
+      </c>
+      <c r="I44">
+        <v>2.2204460491998739e-14</v>
+      </c>
+      <c r="J44">
+        <v>0.99999999972760378</v>
+      </c>
+      <c r="K44">
+        <v>2.2204460491998739e-14</v>
+      </c>
+      <c r="L44">
+        <v>2.2204460491998739e-14</v>
+      </c>
+      <c r="M44">
+        <v>2.2204460491998739e-14</v>
+      </c>
+      <c r="N44">
+        <v>9</v>
+      </c>
+      <c r="O44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B45">
+        <v>2.7795279421128339e-10</v>
+      </c>
+      <c r="C45">
+        <v>2.2204460491159133e-14</v>
+      </c>
+      <c r="D45">
+        <v>2.2204460491159133e-14</v>
+      </c>
+      <c r="E45">
+        <v>2.2204460491159133e-14</v>
+      </c>
+      <c r="F45">
+        <v>4.4798641101314571e-10</v>
+      </c>
+      <c r="G45">
+        <v>2.2204460491159133e-14</v>
+      </c>
+      <c r="H45">
+        <v>2.2204460491159133e-14</v>
+      </c>
+      <c r="I45">
+        <v>2.2204460491159133e-14</v>
+      </c>
+      <c r="J45">
+        <v>0.99999999927386096</v>
+      </c>
+      <c r="K45">
+        <v>2.2204460491159133e-14</v>
+      </c>
+      <c r="L45">
+        <v>2.2204460491159133e-14</v>
+      </c>
+      <c r="M45">
+        <v>2.2204460491159133e-14</v>
+      </c>
+      <c r="N45">
+        <v>9</v>
+      </c>
+      <c r="O45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B46">
+        <v>4.098779287471707e-08</v>
+      </c>
+      <c r="C46">
+        <v>2.220446041665442e-14</v>
+      </c>
+      <c r="D46">
+        <v>2.220446041665442e-14</v>
+      </c>
+      <c r="E46">
+        <v>2.220446041665442e-14</v>
+      </c>
+      <c r="F46">
+        <v>2.6975178434116764e-12</v>
+      </c>
+      <c r="G46">
+        <v>2.220446041665442e-14</v>
+      </c>
+      <c r="H46">
+        <v>2.220446041665442e-14</v>
+      </c>
+      <c r="I46">
+        <v>2.220446041665442e-14</v>
+      </c>
+      <c r="J46">
+        <v>0.99999995900910799</v>
+      </c>
+      <c r="K46">
+        <v>2.220446041665442e-14</v>
+      </c>
+      <c r="L46">
+        <v>2.2408877961239924e-13</v>
+      </c>
+      <c r="M46">
+        <v>2.220446041665442e-14</v>
+      </c>
+      <c r="N46">
+        <v>9</v>
+      </c>
+      <c r="O46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B47">
+        <v>1.3755027182348303e-08</v>
+      </c>
+      <c r="C47">
+        <v>2.220446038601316e-14</v>
+      </c>
+      <c r="D47">
+        <v>2.220446038601316e-14</v>
+      </c>
+      <c r="E47">
+        <v>2.220446038601316e-14</v>
+      </c>
+      <c r="F47">
+        <v>2.220446038601316e-14</v>
+      </c>
+      <c r="G47">
+        <v>2.220446038601316e-14</v>
+      </c>
+      <c r="H47">
+        <v>2.220446038601316e-14</v>
+      </c>
+      <c r="I47">
+        <v>2.220446038601316e-14</v>
+      </c>
+      <c r="J47">
+        <v>2.220446038601316e-14</v>
+      </c>
+      <c r="K47">
+        <v>0.99999994244960455</v>
+      </c>
+      <c r="L47">
+        <v>4.3795168442338297e-08</v>
+      </c>
+      <c r="M47">
+        <v>2.220446038601316e-14</v>
+      </c>
+      <c r="N47">
+        <v>10</v>
+      </c>
+      <c r="O47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B48">
+        <v>3.3643887974459678e-08</v>
+      </c>
+      <c r="C48">
+        <v>2.2204460430248579e-14</v>
+      </c>
+      <c r="D48">
+        <v>2.2204460430248579e-14</v>
+      </c>
+      <c r="E48">
+        <v>2.2204460430248579e-14</v>
+      </c>
+      <c r="F48">
+        <v>2.2204460430248579e-14</v>
+      </c>
+      <c r="G48">
+        <v>2.2204460430248579e-14</v>
+      </c>
+      <c r="H48">
+        <v>2.2204460430248579e-14</v>
+      </c>
+      <c r="I48">
+        <v>2.2204460430248579e-14</v>
+      </c>
+      <c r="J48">
+        <v>2.2204460430248579e-14</v>
+      </c>
+      <c r="K48">
+        <v>0.99999996635585264</v>
+      </c>
+      <c r="L48">
+        <v>5.9585442727457274e-14</v>
+      </c>
+      <c r="M48">
+        <v>2.2204460430248579e-14</v>
+      </c>
+      <c r="N48">
+        <v>10</v>
+      </c>
+      <c r="O48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B49">
+        <v>1.8981910933795388e-08</v>
+      </c>
+      <c r="C49">
+        <v>2.220446045737867e-14</v>
+      </c>
+      <c r="D49">
+        <v>2.220446045737867e-14</v>
+      </c>
+      <c r="E49">
+        <v>2.220446045737867e-14</v>
+      </c>
+      <c r="F49">
+        <v>2.220446045737867e-14</v>
+      </c>
+      <c r="G49">
+        <v>2.220446045737867e-14</v>
+      </c>
+      <c r="H49">
+        <v>2.220446045737867e-14</v>
+      </c>
+      <c r="I49">
+        <v>2.220446045737867e-14</v>
+      </c>
+      <c r="J49">
+        <v>2.220446045737867e-14</v>
+      </c>
+      <c r="K49">
+        <v>0.99999998101781917</v>
+      </c>
+      <c r="L49">
+        <v>7.0036234912690806e-14</v>
+      </c>
+      <c r="M49">
+        <v>2.220446045737867e-14</v>
+      </c>
+      <c r="N49">
+        <v>10</v>
+      </c>
+      <c r="O49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50">
+        <v>2.0603997422985149e-07</v>
+      </c>
+      <c r="C50">
+        <v>2.2204460111251991e-14</v>
+      </c>
+      <c r="D50">
+        <v>2.2204460111251991e-14</v>
+      </c>
+      <c r="E50">
+        <v>2.2204460111251991e-14</v>
+      </c>
+      <c r="F50">
+        <v>2.2204460111251991e-14</v>
+      </c>
+      <c r="G50">
+        <v>2.2204460111251991e-14</v>
+      </c>
+      <c r="H50">
+        <v>2.2204460111251991e-14</v>
+      </c>
+      <c r="I50">
+        <v>2.2204460111251991e-14</v>
+      </c>
+      <c r="J50">
+        <v>2.2204460111251991e-14</v>
+      </c>
+      <c r="K50">
+        <v>0.99999979395980376</v>
+      </c>
+      <c r="L50">
+        <v>2.2204460111251991e-14</v>
+      </c>
+      <c r="M50">
+        <v>2.2204460111251991e-14</v>
+      </c>
+      <c r="N50">
+        <v>10</v>
+      </c>
+      <c r="O50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B51">
+        <v>2.572680660404859e-08</v>
+      </c>
+      <c r="C51">
+        <v>2.2204460444898127e-14</v>
+      </c>
+      <c r="D51">
+        <v>2.2204460444898127e-14</v>
+      </c>
+      <c r="E51">
+        <v>2.2204460444898127e-14</v>
+      </c>
+      <c r="F51">
+        <v>2.2204460444898127e-14</v>
+      </c>
+      <c r="G51">
+        <v>2.2204460444898127e-14</v>
+      </c>
+      <c r="H51">
+        <v>2.2204460444898127e-14</v>
+      </c>
+      <c r="I51">
+        <v>2.2204460444898127e-14</v>
+      </c>
+      <c r="J51">
+        <v>2.2204460444898127e-14</v>
+      </c>
+      <c r="K51">
+        <v>0.99999997427293408</v>
+      </c>
+      <c r="L51">
+        <v>5.9460611490137156e-14</v>
+      </c>
+      <c r="M51">
+        <v>2.2204460444898127e-14</v>
+      </c>
+      <c r="N51">
+        <v>10</v>
+      </c>
+      <c r="O51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B52">
+        <v>4.9670365253288033e-13</v>
+      </c>
+      <c r="C52">
+        <v>2.220061990398823e-14</v>
+      </c>
+      <c r="D52">
+        <v>2.220061990398823e-14</v>
+      </c>
+      <c r="E52">
+        <v>2.220061990398823e-14</v>
+      </c>
+      <c r="F52">
+        <v>5.0901029059710977e-10</v>
+      </c>
+      <c r="G52">
+        <v>0.053793486760433024</v>
+      </c>
+      <c r="H52">
+        <v>2.220061990398823e-14</v>
+      </c>
+      <c r="I52">
+        <v>2.220061990398823e-14</v>
+      </c>
+      <c r="J52">
+        <v>2.220061990398823e-14</v>
+      </c>
+      <c r="K52">
+        <v>2.220061990398823e-14</v>
+      </c>
+      <c r="L52">
+        <v>0.94620651272988243</v>
+      </c>
+      <c r="M52">
+        <v>2.220061990398823e-14</v>
+      </c>
+      <c r="N52">
+        <v>11</v>
+      </c>
+      <c r="O52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53">
+        <v>6.9520803525590817e-13</v>
+      </c>
+      <c r="C53">
+        <v>2.2200637074742676e-14</v>
+      </c>
+      <c r="D53">
+        <v>2.2200637074742676e-14</v>
+      </c>
+      <c r="E53">
+        <v>2.2200637074742676e-14</v>
+      </c>
+      <c r="F53">
+        <v>2.2200637074742676e-14</v>
+      </c>
+      <c r="G53">
+        <v>0.054452495972636489</v>
+      </c>
+      <c r="H53">
+        <v>2.2200637074742676e-14</v>
+      </c>
+      <c r="I53">
+        <v>2.2200637074742676e-14</v>
+      </c>
+      <c r="J53">
+        <v>2.2200637074742676e-14</v>
+      </c>
+      <c r="K53">
+        <v>2.2200637074742676e-14</v>
+      </c>
+      <c r="L53">
+        <v>0.94554750402646848</v>
+      </c>
+      <c r="M53">
+        <v>2.2200637074742676e-14</v>
+      </c>
+      <c r="N53">
+        <v>11</v>
+      </c>
+      <c r="O53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B54">
+        <v>0.0010772259531193825</v>
+      </c>
+      <c r="C54">
+        <v>0.0010772259139097283</v>
+      </c>
+      <c r="D54">
+        <v>0.0010772259139097246</v>
+      </c>
+      <c r="E54">
+        <v>0.0010772259139097283</v>
+      </c>
+      <c r="F54">
+        <v>0.00107722591390973</v>
+      </c>
+      <c r="G54">
+        <v>0.0010772259139097318</v>
+      </c>
+      <c r="H54">
+        <v>0.0010772259139097292</v>
+      </c>
+      <c r="I54">
+        <v>0.0010772259139097292</v>
+      </c>
+      <c r="J54">
+        <v>0.0010772259139097292</v>
+      </c>
+      <c r="K54">
+        <v>0.0010772259139097318</v>
+      </c>
+      <c r="L54">
+        <v>0.98815051490778327</v>
+      </c>
+      <c r="M54">
+        <v>0.0010772259139097337</v>
+      </c>
+      <c r="N54">
+        <v>11</v>
+      </c>
+      <c r="O54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B55">
+        <v>6.0737556285247285e-12</v>
+      </c>
+      <c r="C55">
+        <v>2.2204212152058255e-14</v>
+      </c>
+      <c r="D55">
+        <v>2.2204212152058255e-14</v>
+      </c>
+      <c r="E55">
+        <v>2.2204212152058255e-14</v>
+      </c>
+      <c r="F55">
+        <v>0.0055384427935664072</v>
+      </c>
+      <c r="G55">
+        <v>2.2204212152058255e-14</v>
+      </c>
+      <c r="H55">
+        <v>2.2204212152058255e-14</v>
+      </c>
+      <c r="I55">
+        <v>2.2204212152058255e-14</v>
+      </c>
+      <c r="J55">
+        <v>2.2204212152058255e-14</v>
+      </c>
+      <c r="K55">
+        <v>2.2204212152058255e-14</v>
+      </c>
+      <c r="L55">
+        <v>0.99446155720015994</v>
+      </c>
+      <c r="M55">
+        <v>2.2204212152058255e-14</v>
+      </c>
+      <c r="N55">
+        <v>11</v>
+      </c>
+      <c r="O55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B56">
+        <v>0.00069683668264158838</v>
+      </c>
+      <c r="C56">
+        <v>0.0006968366764012146</v>
+      </c>
+      <c r="D56">
+        <v>0.00069683667640121503</v>
+      </c>
+      <c r="E56">
+        <v>0.00069683667640121525</v>
+      </c>
+      <c r="F56">
+        <v>0.00069683667886356274</v>
+      </c>
+      <c r="G56">
+        <v>0.00069683667640121915</v>
+      </c>
+      <c r="H56">
+        <v>0.0006968366764012159</v>
+      </c>
+      <c r="I56">
+        <v>0.0006968366764012159</v>
+      </c>
+      <c r="J56">
+        <v>0.0006968366764012159</v>
+      </c>
+      <c r="K56">
+        <v>0.00069683667640122111</v>
+      </c>
+      <c r="L56">
+        <v>0.99233479655088397</v>
+      </c>
+      <c r="M56">
+        <v>0.00069683667640122111</v>
+      </c>
+      <c r="N56">
+        <v>11</v>
+      </c>
+      <c r="O56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B57">
+        <v>0.00060829524339099889</v>
+      </c>
+      <c r="C57">
+        <v>0.00060829318326624418</v>
+      </c>
+      <c r="D57">
+        <v>0.00060829318326624418</v>
+      </c>
+      <c r="E57">
+        <v>0.0006082931832662457</v>
+      </c>
+      <c r="F57">
+        <v>0.00060829318326624656</v>
+      </c>
+      <c r="G57">
+        <v>0.00060829318326624548</v>
+      </c>
+      <c r="H57">
+        <v>0.00060829318326624418</v>
+      </c>
+      <c r="I57">
+        <v>0.00060829318326624418</v>
+      </c>
+      <c r="J57">
+        <v>0.00060829318326624418</v>
+      </c>
+      <c r="K57">
+        <v>0.00060829318326624602</v>
+      </c>
+      <c r="L57">
+        <v>0.99330877292394659</v>
+      </c>
+      <c r="M57">
+        <v>0.00060829318326624526</v>
+      </c>
+      <c r="N57">
+        <v>11</v>
+      </c>
+      <c r="O57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B58">
+        <v>2.2302944160484784e-06</v>
+      </c>
+      <c r="C58">
+        <v>2.2204456365655623e-14</v>
+      </c>
+      <c r="D58">
+        <v>2.2204456365655623e-14</v>
+      </c>
+      <c r="E58">
+        <v>2.2204456365655623e-14</v>
+      </c>
+      <c r="F58">
+        <v>2.2204456365655623e-14</v>
+      </c>
+      <c r="G58">
+        <v>2.2204456365655623e-14</v>
+      </c>
+      <c r="H58">
+        <v>2.2204456365655623e-14</v>
+      </c>
+      <c r="I58">
+        <v>2.2204456365655623e-14</v>
+      </c>
+      <c r="J58">
+        <v>2.2204456365655623e-14</v>
+      </c>
+      <c r="K58">
+        <v>2.2204456365655623e-14</v>
+      </c>
+      <c r="L58">
+        <v>2.2204456365655623e-14</v>
+      </c>
+      <c r="M58">
+        <v>0.99999776970536203</v>
+      </c>
+      <c r="N58">
+        <v>12</v>
+      </c>
+      <c r="O58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B59">
+        <v>6.0690428906459119e-06</v>
+      </c>
+      <c r="C59">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="D59">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="E59">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="F59">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="G59">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="H59">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="I59">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="J59">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="K59">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="L59">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="M59">
+        <v>0.99999393095688738</v>
+      </c>
+      <c r="N59">
+        <v>12</v>
+      </c>
+      <c r="O59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B60">
+        <v>1.0791154101205775e-05</v>
+      </c>
+      <c r="C60">
+        <v>2.2204440525488119e-14</v>
+      </c>
+      <c r="D60">
+        <v>2.2204440525488119e-14</v>
+      </c>
+      <c r="E60">
+        <v>2.2204440525488119e-14</v>
+      </c>
+      <c r="F60">
+        <v>2.2204440525488119e-14</v>
+      </c>
+      <c r="G60">
+        <v>2.2204440525488119e-14</v>
+      </c>
+      <c r="H60">
+        <v>2.2204440525488119e-14</v>
+      </c>
+      <c r="I60">
+        <v>2.2204440525488119e-14</v>
+      </c>
+      <c r="J60">
+        <v>2.2204440525488119e-14</v>
+      </c>
+      <c r="K60">
+        <v>2.2204440525488119e-14</v>
+      </c>
+      <c r="L60">
+        <v>2.2204440525488119e-14</v>
+      </c>
+      <c r="M60">
+        <v>0.99998920884567677</v>
+      </c>
+      <c r="N60">
+        <v>12</v>
+      </c>
+      <c r="O60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B61">
+        <v>6.0690428906459119e-06</v>
+      </c>
+      <c r="C61">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="D61">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="E61">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="F61">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="G61">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="H61">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="I61">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="J61">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="K61">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="L61">
+        <v>2.2204449262716973e-14</v>
+      </c>
+      <c r="M61">
+        <v>0.99999393095688738</v>
+      </c>
+      <c r="N61">
+        <v>12</v>
+      </c>
+      <c r="O61">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>